--- a/Base/Teams/Texans/Team Data.xlsx
+++ b/Base/Teams/Texans/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5</t>
-  </si>
-  <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3</t>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5</t>
+  </si>
+  <si>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29</t>
   </si>
   <si>
-    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28</t>
-  </si>
-  <si>
-    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0</t>
+    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22</t>
+  </si>
+  <si>
+    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15</t>
+  </si>
+  <si>
+    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,52 +665,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="M2">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N2">
         <v>42</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P2">
         <v>17</v>
       </c>
       <c r="Q2">
-        <v>764</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J3">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>297</v>
       </c>
       <c r="N3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="M2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="N2">
         <v>31</v>
       </c>
       <c r="O2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>836</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G3">
         <v>53</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3">
+        <v>89</v>
+      </c>
+      <c r="J3">
         <v>86</v>
-      </c>
-      <c r="J3">
-        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>320</v>
       </c>
       <c r="N3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Texans/Team Data.xlsx
+++ b/Base/Teams/Texans/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5</t>
-  </si>
-  <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6</t>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8</t>
+  </si>
+  <si>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68</t>
-  </si>
-  <si>
-    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29</t>
-  </si>
-  <si>
-    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22</t>
-  </si>
-  <si>
-    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15</t>
-  </si>
-  <si>
-    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4</t>
+    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61</t>
+  </si>
+  <si>
+    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25</t>
+  </si>
+  <si>
+    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11</t>
+  </si>
+  <si>
+    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22</t>
+  </si>
+  <si>
+    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="M2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="N2">
         <v>42</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2">
         <v>17</v>
       </c>
       <c r="Q2">
-        <v>817</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>297</v>
       </c>
       <c r="N3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="M2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="N2">
         <v>31</v>
@@ -985,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="Q2">
-        <v>909</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3">
         <v>47</v>
       </c>
       <c r="I3">
+        <v>94</v>
+      </c>
+      <c r="J3">
         <v>89</v>
-      </c>
-      <c r="J3">
-        <v>86</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2">
         <v>39</v>
@@ -1257,10 +1257,10 @@
         <v>15</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Texans/Team Data.xlsx
+++ b/Base/Teams/Texans/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8</t>
-  </si>
-  <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4</t>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43</t>
+  </si>
+  <si>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61</t>
-  </si>
-  <si>
-    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25</t>
-  </si>
-  <si>
-    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11</t>
-  </si>
-  <si>
-    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22</t>
-  </si>
-  <si>
-    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0</t>
+    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67</t>
+  </si>
+  <si>
+    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16</t>
+  </si>
+  <si>
+    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23</t>
+  </si>
+  <si>
+    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0</t>
+  </si>
+  <si>
+    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0 16 3 0 0 14</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>17</v>
       </c>
       <c r="F2">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>360</v>
       </c>
       <c r="N2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O2">
         <v>35</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>165</v>
+      </c>
+      <c r="G3">
         <v>56</v>
       </c>
-      <c r="F3">
-        <v>158</v>
-      </c>
-      <c r="G3">
-        <v>55</v>
-      </c>
       <c r="H3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I3">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="M3">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="N3">
         <v>45</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>809</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2">
         <v>7</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>329</v>
       </c>
       <c r="N2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q2">
         <v>970</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="M3">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="N3">
         <v>28</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>904</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2">
         <v>39</v>
@@ -1251,10 +1251,10 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1371,7 +1371,7 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Texans/Team Data.xlsx
+++ b/Base/Teams/Texans/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43</t>
-  </si>
-  <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11</t>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13</t>
+  </si>
+  <si>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,19 +161,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67</t>
-  </si>
-  <si>
-    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16</t>
-  </si>
-  <si>
-    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23</t>
-  </si>
-  <si>
-    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0</t>
+    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67 64 67 58 60 60</t>
+  </si>
+  <si>
+    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16 17 23 17 27 21</t>
+  </si>
+  <si>
+    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23 0</t>
+  </si>
+  <si>
+    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38 53</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0 0</t>
   </si>
   <si>
     <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0 16 3 0 0 14</t>
@@ -668,19 +668,19 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -689,16 +689,16 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>524</v>
+        <v>551</v>
       </c>
       <c r="M2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="N2">
         <v>43</v>
@@ -710,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="Q2">
-        <v>899</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>169</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
         <v>59</v>
       </c>
-      <c r="F3">
-        <v>165</v>
-      </c>
-      <c r="G3">
-        <v>56</v>
-      </c>
-      <c r="H3">
-        <v>57</v>
-      </c>
       <c r="I3">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>316</v>
       </c>
       <c r="N3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="D2">
         <v>26</v>
@@ -952,28 +952,28 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>11</v>
       </c>
       <c r="J2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="M2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="N2">
         <v>34</v>
@@ -985,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="Q2">
-        <v>970</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>342</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L2">
         <v>39</v>
@@ -1251,10 +1251,10 @@
         <v>30</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Texans/Team Data.xlsx
+++ b/Base/Teams/Texans/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13</t>
-  </si>
-  <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3</t>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14</t>
+  </si>
+  <si>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67 64 67 58 60 60</t>
-  </si>
-  <si>
-    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16 17 23 17 27 21</t>
-  </si>
-  <si>
-    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23 0</t>
-  </si>
-  <si>
-    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38 53</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0 0</t>
-  </si>
-  <si>
-    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0 16 3 0 0 14</t>
+    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67 64 67 58 60 60 67 52</t>
+  </si>
+  <si>
+    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16 17 23 17 27 21 28 7</t>
+  </si>
+  <si>
+    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23 0 21 18 26 20 13</t>
+  </si>
+  <si>
+    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38 53 53 44 39 53 49 41</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0 0 0 9 0 18 11 0</t>
+  </si>
+  <si>
+    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0 16 3 0 0 14 15 0 8 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -677,19 +677,19 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>381</v>
       </c>
       <c r="N2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>17</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>173</v>
+      </c>
+      <c r="G3">
         <v>61</v>
       </c>
-      <c r="F3">
-        <v>169</v>
-      </c>
-      <c r="G3">
-        <v>58</v>
-      </c>
       <c r="H3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J3">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="M3">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="N3">
         <v>46</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>867</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>356</v>
       </c>
       <c r="N2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P2">
         <v>22</v>
@@ -996,37 +996,37 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G3">
         <v>66</v>
       </c>
       <c r="H3">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="M3">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="N3">
         <v>29</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>973</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1245,7 +1245,7 @@
         <v>72</v>
       </c>
       <c r="L2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>30</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Texans/Team Data.xlsx
+++ b/Base/Teams/Texans/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2</t>
-  </si>
-  <si>
-    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14</t>
-  </si>
-  <si>
-    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2</t>
-  </si>
-  <si>
-    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29</t>
+    <t>5 7 9 2 19 4 6 1 4 7 2 2 2 1 5 6 17 2 4 13 1 1 4 0 1 1 8 2 5 2 5 6 9 1 -2 4 2 2 5 2 5 2 -2 2 2 1 2 2 3 0 5 1 -1 2 4 -1 5 2 6 5 4 4 1 8 5 3 15 4 1 2 1 7 2 6 6 1 3 0 0 0 9 5 6 2 -1 3 11 3 0 7 0 12 14 3 4 3 2 4 11 29 2 1 4 7 -1 4 -2 10 6 4 11 0 11 1 4 3 4 1 -2 2 -2 3 3 11 8 0 0 4 -1 3 3 3 4 1 0 3 3 4 3 1 -1 13 6 9 4 1 14 3 18 -2 5 8 4 10 -2 2 0 9 16 1 -2 1 3 2 4 7 2 4 5 11 4 0 -1 3 13 4 3 9 1 0 2 21 21 2 2 23 9 0 2 4 4 0 8 5 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 0 12 8 -1 4 11 5 4 2 5 4 5 5 1 4 7 1 1 1 7 11 7 3 4 1 19 4 6 0 3 2 3 3 1 11 4 0 9 0 4 2 10 -1 3 5 4 7 14 3 5 6 5 1 4 1 3 3 2 3 2 9 3 1 8 6 2 1 5 7 2 1 1 5 3 3 5 6 2 4 0 7 9 3 2 2 4 10 6 2 5 5 38 4 48 14 2 10 0 14 4 3 1 1 2 3 1 6 10 5 3 1 19 26 1 7 3 6 6 5 7 -1 2 1 1 6 3 8 2 4 4 1 1 5 3 3 0 0 5 3 3 11 4 5 5 2 4 9 -4 29 4 5 0 3 3 0 3 2 -2 4 5 7 3 0 1 15 8 4 4 3 1 4 0 2 -2 8 5 3 -3 3 1 2 3 2 -1 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 1 10 3 4 0 12 0 -6 2 -1 2 4 1 3 2 4 2 5 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 3 0 0 5 -1 24 5 1 6 1 0 6 6 3 0 11 2 1 3 1 2 2 0 6 35 2 -1 0 4 1 4 4 -2 -2 2 4 13 3 1 6 2 2 0 4 5 2 0 0 2 1 4 2 14 4 1 4 1 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 5 1 4 7 1 1 3 7 2 7 4 3 1 3 4 30 2 -5 2 5 0 7 -1 4 2 4 2 4 0 5 7 0 7 5 5 1 7 16 2 2 8 3 -1 4 0 1 6 5 -6 2 10 0 2 2 -1 5 2 9 0 -3 0 8 3 5 -4 7 4 3 2 3 6 2 0 3 4 2 0 8 3 6 3 4 4 3 6 3 -1 0 2 5 4 2 1 0 9 3 4 25 2 4 2 13 1 2 1 2 3 5 15 6 1 5 2 2 4 7 4 2 1 1 2 1 3 3 4 36 -2 14 -4 6 3 -1 2 6 4 2 5 3 6 5 -1 2 6 4 2 4 3 2 8 2 8 -1 5 3 2 6 1 0 3 1 -2 -1 -1 1 7 6 5 11 2 6 3 -3 15 3</t>
+  </si>
+  <si>
+    <t>12 5 6 11 9 19 7 15 20 8 7 20 10 12 19 31 17 8 6 4 7 13 6 6 13 38 10 6 5 12 9 13 15 9 6 6 15 4 24 11 7 11 23 3 20 17 28 -1 8 20 20 9 6 8 18 20 15 14 3 14 34 -5 16 6 10 8 15 14 26 13 7 6 24 43 4 14 19 0 13 23 15 16 36 -2 4 14 6 3 13 4 17 11 44 9 23 6 19 9 9 22 5 9 11 19 36 4 22 7 18 17 6 16 8 17 6 12 6 11 35 0 2 4 19 5 6 4 22 53 15 7 6 9 5 6 16 5 8 12 8 24 28 14 9 11 8 8 16 3 6 9 30 1 5 -3 15 13 18 8 12 6 8 57 19 19 9 5 7 11 5 4 6 10 7 10 12 77 6 3 7 7 8 12 7 10 2 5 6 9 8 4 5 4 -2 10 15 4 29 1 10 16 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 10 11 14 2 33 12 37 27 -4 10 38 8 19 18 9 40 34 1 64 11 14 19 7 1 28 13 -2 7 1 15 7 28 11 3 9 9 16 5 9 23 18 8 16 8 13 6 5 11 6 3 48 5 8 3 3 10 8 4 15 12 4 3 15 11 9 4 15 6 9 11 11 2 17 26 38 5 12 20 14 9 4 31 7 2 7 -2 14 5 23 6 8 9 5 16 10 10 6 3 7 50 2 12 17 7 26 25 11 6 7 14 13 -3 4 2 29 13 0 22 15 12 20 4 8 42 9 2 14 7 7 12 8 14 6 7 2 11 14 38 20 27 0 4 9 7 7 32 5 29 10 8 7 40 17 25 7 24 12 10 7 2 52 8 7 9 3 29 4 6 4 32 -1 12 13 6 22 -3 13 9 22 17 14 7 2 11 11 8 35 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 3 8 7 8 5 8 12 3 6 12 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 6 3 9 10 14 5 8 -4 18 13 9 4 5 5 3 20 11 17 8 1 9 13 8 6 3 14 7 6 12 3 10 10 0 22 5 5 0 -1 18 8 6 5 2 4 5 -3 1 2 10 8 10 5 10 6 8 0 9 26 -1 15 15 3 -5 1 6 7 8 8 10 7 6 45 24 8 8 9 9 23 2 8 31 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 8 10 9 8 12 3 13 10 5 6 2 8 7 6 6 8 20 13 1 20 40 10 11 5 4 -4 4 7 2 6 5 15 5 12 11 2 10 4 14 2 5 7 17 13 30 5 10 7 0 15 8 11 15 15 12 6 9 18 7 11 -2 19 10 7 11 9 11 12 4 17 6 18 7 2 6 8 10 5 6 3 7 22 7 7 1 7 6 12 11 33 2 6 18 3 43 7 4 11 -4 11 4 14 5 36 6 41 18 12 9 6 27 -1 12 23 4 13 6 3 9 -2 2 8 6 15 24 0 8 6 9 4 8 3 20 9 5 6 14 7 8 14 6 -3 25 4 7 9 -5 20 28 24 8 13 37 30 7 5 5 21 5 26</t>
+  </si>
+  <si>
+    <t>3 3 1 1 18 7 9 9 6 8 8 4 4 3 -1 11 2 27 3 4 3 2 9 0 -2 4 -1 4 14 -1 2 0 5 1 11 3 10 1 4 5 1 3 2 4 14 0 5 1 3 4 14 4 3 0 6 1 7 15 22 3 1 2 2 44 13 7 2 1 4 1 3 20 7 2 1 9 3 0 5 2 11 2 0 2 3 2 11 8 2 4 12 25 4 4 1 2 -1 11 1 2 1 6 2 2 5 2 2 8 1 6 4 3 0 4 2 7 7 3 4 2 7 13 2 6 5 3 1 15 4 3 9 2 0 4 11 4 4 14 0 0 11 2 0 6 4 3 4 -4 3 6 2 2 -2 5 18 3 3 0 34 0 2 0 2 -3 5 14 5 2 9 4 2 3 5 20 4 10 94 2 17 3 5 3 5 5 5 2 2 0 8 2 4 4 0 9 7 5 6 0 3 -3 4 9 -2 5 13 1 2 2 12 1 2 12 3 6 8 3 3 11 1 0 0 2 6 2 3 11 4 5 3 0 0 13 2 9 2 6 0 17 3 1 3 1 2 0 4 3 9 -4 4 6 6 1 0 -3 11 11 4 9 1 11 2 10 7 -1 3 6 2 19 3 4 59 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 1 0 1 1 0 8 3 7 4 2 4 1 0 -2 3 1 4 19 11 4 4 2 8 3 3 5 3 8 4 12 -2 1 5 2 0 -3 11 2 3 -1 5 3 6 3 2 19 24 -3 8 3 6 4 0 2 80 3 -1 0 3 3 1 4 13 9 11 5 5 12 0 2 5 -2 3 5 9 -2 1 5 2 12 23 5 1 12 2 2 8 6 11 9 -1 3 11 4 1 14 -2 -2 1 3 2 1 14 0 2 2 6 0 3 5 2 1 11 46 2 7 5 1 1 2 9 3 11 7 5 3 7 2 2 4 3 8 -3 2 2 8 52 10 16 28 -3 4 14 -2 0 6 8 9 4 45 0 5 3 1 6 6 -1 1 3 5 6 1 4 11 7 1 3 5 4 9 13 1 3 9 6 7 6 5 0 3 9 6 0 6 -4 1 1 1 9 -1 2 13 -3 21 7 5 10 8 5 -1 5 8 1 6 1 -1 3 4 5 6 14 1 26 1 5 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 2 3 4 3 1 8 0 17 8 -5 7 9 6 3 0 8 5 41 12 7 7 1 5 1 4 3 8 2 5 -1 4 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 1 3 2 3 4 3 3 1 2 0 83 2 -1 4 3 13 1 12 -1 10 11 0 1 8 0 14 -2 4 5 11 6 2 5 4 17 1 -1 6 1 4 -1 0 7 -2 6 16 9 2 1 18 2 7 12 0 1 4 -1 8 7 15 5 0 16 2 7 19 2 3 4 6 3 -2 4 6 1 10 4 0 5 6 2 14 3 16 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 1 19 2 2 -2 8 -1 6 12 2 2 3 1 8 6 11 5 4 1 9 4 2 24 13 2 0 2 5 -3 1 1 1 2 10 8 6 2 1 10 1 -1 6 0 7 6 0 3 8 2 0 7 0 -1 15 11 -1 4 9 3 16 4 1 11 25 4 5 3 6 -3 7 7 3 6 10 0 12 3 9 13 -1 3 -3 5 3 32 7 -3 8 5 9 3 13 -1 3 13 3 0 3 6 3 47 4 3 0 4 2 3 10 3 0 7 12 16 0 4 1 2 -1 8 8 5 1 1 9 3 -1 2 5 -1 10 2 1 2 3 5 15 3 0 17 9 4 13 -1 0 2 8 1 7 1 2 9 2 -2 6 6 2 13 5 1 1 13 16 6 7 -1 0 2 2 6 3 6 1 10 3 6 6 1 8 2 -2 0 37 3 4 5 2 2 -3 5 3 5 2 4 1 3 16 1 3 16 13 -1 2 8 -1 5 8 8 0 2 3 3 1 8 -2 10 2 0 11</t>
+  </si>
+  <si>
+    <t>6 6 11 7 15 10 13 2 6 5 4 9 9 2 17 11 7 12 14 7 19 15 1 3 6 -3 4 29 14 4 18 11 1 19 25 11 7 13 5 13 22 5 11 13 6 15 17 10 6 12 6 6 26 7 7 7 15 5 0 14 1 8 14 24 18 29 11 3 8 26 8 5 5 39 23 19 9 25 25 7 6 8 15 3 7 13 3 4 4 13 25 2 13 19 -3 11 15 7 1 11 8 1 51 12 10 5 7 6 8 12 6 18 13 10 7 9 10 8 6 2 13 5 20 22 45 12 7 15 -1 8 11 5 6 23 7 8 9 7 53 2 17 9 8 0 3 8 1 28 36 3 31 15 16 6 15 1 6 -1 9 5 45 6 16 73 -1 7 4 0 5 17 6 12 6 9 5 7 27 16 4 21 -1 5 9 6 10 13 12 20 12 9 9 6 18 11 18 12 6 10 21 2 10 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 10 6 51 17 16 14 12 12 20 2 6 3 7 9 10 4 2 10 9 4 11 16 14 7 7 6 5 18 12 11 21 -5 1 21 5 11 13 10 9 11 13 2 16 0 10 8 17 8 5 5 12 11 14 12 7 9 7 7 10 5 4 6 9 11 12 8 22 16 16 3 2 11 35 18 13 10 7 7 13 7 4 26 11 7 10 15 2 13 9 0 0 24 8 8 5 6 41 5 28 8 15 6 8 17 8 5 6 9 7 5 33 30 -6 9 6 12 7 14 42 20 14 22 7 11 20 4 21 6 8 1 19 4 4 29 12 8 6 11 11 5 5 5 9 52 13 33 15 8 3 -1 27 22 7 6 5 -3 7 15 41 7 9 6 9 5 18 0 13 9 22 18 4 9 3 29 4 11 13 15 14 13 8 7 6 13 6 5 33 5 18 2 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 7 5 25 31 9 20 1 16 7 8 5 16 21 2 37 9 5 5 1 19 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 12 9 17 13 7 51 52 6 18 28 10 13 11 1 8 10 6 1 41 5 19 15 16 2 11 12 13 47 9 8 10 5 8 15 14 3 4 15 9 3 11 28 2 11 52 5 68 11 20 6 5 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 11 5 11 6 1 10 22 16 -3 46 3 7 -3 12 4 8 9 14 6 13 2 8 17 24 14 4 17 0 6 1 29 5 8 24 25 16 55 7 13 22 14 1 29 6 1 4 30 11 12 21 9 8 3 6 5 10 11 2 11 7 5 5 7 5 5 11 7 10 16 9 12 25 9 18 12 15 16 14 6 12 17 11 9 17 7 7 6 6 24 13 8 27 3 3 3 12 12 12 1 6 17 27 12 43 6 8 13 45 29 5 2 29 13 4 9 19 17 9 15 0 5 14 24 14 1 14 4 10 36 24 3 16</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67 64 67 58 60 60 67 52</t>
-  </si>
-  <si>
-    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16 17 23 17 27 21 28 7</t>
-  </si>
-  <si>
-    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23 0 21 18 26 20 13</t>
-  </si>
-  <si>
-    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38 53 53 44 39 53 49 41</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0 0 0 9 0 18 11 0</t>
-  </si>
-  <si>
-    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0 16 3 0 0 14 15 0 8 0</t>
+    <t>58 65 61 54 61 63 62 62 65 62 64 65 56 63 55 64 56 63 65 66 60 65 69 67 68 64 62 50 69 69 58 58 63 60 62 61 62 64 64 70 62 64 58 57 58 60 54 68 55 57 61 68 67 64 67 58 60 60 67 52 63 63 49</t>
+  </si>
+  <si>
+    <t>20 21 20 16 19 28 20 20 40 24 23 18 17 19 18 21 16 39 23 23 16 28 32 23 22 72 16 8 19 64 16 25 16 20 0 18 21 27 31 22 8 22 25 14 26 17 22 29 15 18 25 20 16 17 23 17 27 21 28 7 25 21 12</t>
+  </si>
+  <si>
+    <t>21 22 23 17 26 4 27 29 22 19 20 20 24 21 22 24 0 10 22 17 20 28 15 10 20 19 20 18 11 26 21 23 12 23 22 0 8 19 24 23 18 19 21 27 19 38 17 24 16 16 24 0 26 22 24 23 34 15 19 15 27 44 18 17 22 28 26 22 13 24 11 98 0 23 0 21 18 26 20 13 16 24 18</t>
+  </si>
+  <si>
+    <t>40 41 42 52 31 57 48 54 58 43 44 44 51 50 59 41 33 56 56 52 45 67 44 49 45 50 61 46 23 43 52 26 64 52 37 42 38 44 41 40 36 52 54 39 26 50 46 50 57 38 47 49 33 51 42 48 38 39 52 43 46 49 50 56 53 44 47 44 35 44 49 51 43 61 47 0 45 54 49 42 21 55 45 48 44 42 54 43 44 69 30 52 48 63 58 53 59 59 58 45 48 48 36 48 52 50 38 50 39 56 53 32 45 50 50 47 53 60 41 51 54 47 58 35 35 49 55 51 38 53 53 44 39 53 49 41 39 33 42 50 47</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 8 0 0 13 12 0 0 0 6 0 0 0 0 16 4 0 0 0 6 0 -1 0 4 0 0 9 0 0 2 0 0 5 3 0 0 0 9 35 0 0 0 0 21 13 0 7 0 0 0 0 0 0 0 1 0 0 0 7 15 5 0 12 0 0 0 0 9 6 12 -1 0 13 0 6 0 0 0 2 13 0 0 21 0 0 0 0 0 2 0 8 0 0 0 15 0 10 18 0 0 16 0 4 0 0 0 17 0 0 0 7 -1 16 0 0 15 0 0 0 9 22 -2 48 3 0 0 0 9 0 18 11 0 1 0 24 8 10</t>
+  </si>
+  <si>
+    <t>0 0 19 10 0 8 1 0 8 0 5 0 13 9 0 0 0 19 0 14 0 0 0 0 0 0 0 13 9 0 7 7 0 0 0 0 8 0 6 11 0 0 0 0 7 0 0 0 0 2 0 8 0 0 0 9 0 0 0 0 6 11 0 0 3 0 0 14 20 17 0 0 0 1 0 0 2 0 0 0 0 10 0 7 0 0 0 0 4 0 2 0 0 16 3 0 0 14 15 0 8 0 13 3 8 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>134</v>
+      </c>
+      <c r="G2">
+        <v>96</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>132</v>
-      </c>
-      <c r="G2">
-        <v>91</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
       <c r="J2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="M2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="N2">
         <v>46</v>
       </c>
       <c r="O2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>969</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>62</v>
+      </c>
+      <c r="H3">
         <v>63</v>
       </c>
-      <c r="F3">
-        <v>173</v>
-      </c>
-      <c r="G3">
-        <v>61</v>
-      </c>
-      <c r="H3">
-        <v>60</v>
-      </c>
       <c r="I3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>337</v>
       </c>
       <c r="N3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -964,16 +964,16 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="M2">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="N2">
         <v>35</v>
@@ -985,7 +985,7 @@
         <v>22</v>
       </c>
       <c r="Q2">
-        <v>1030</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>358</v>
       </c>
       <c r="N3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
